--- a/data/annotations/indicators_and_annotations-v6.xlsx
+++ b/data/annotations/indicators_and_annotations-v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56FDEBC-7DEE-6244-BFF4-9D4127DAF60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA91FD-0349-8E48-97FB-49417453E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21240" windowHeight="16640" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="23800" windowHeight="21100" activeTab="1" xr2:uid="{B946F43B-58A6-4248-B453-C61D9D19EABF}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="3" r:id="rId1"/>
@@ -1513,9 +1513,6 @@
     <t>The struggles that we faced in have not gone away and as winter takes hold vital maintenance work has to continue to protect the site</t>
   </si>
   <si>
-    <t xml:space="preserve"> via our JustGiving</t>
-  </si>
-  <si>
     <t>we are appealing to our loyal followers, friends and supporters for donations small or large to keep our legacy alive for future generations to enjoy</t>
   </si>
   <si>
@@ -2402,6 +2399,9 @@
   </si>
   <si>
     <t>crippling</t>
+  </si>
+  <si>
+    <t>via our JustGiving</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2463,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2512,6 +2512,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2526,7 +2532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2593,6 +2599,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3537,8 +3546,8 @@
   <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D268" sqref="D268"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3558,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3576,10 +3585,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3590,7 +3599,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3601,7 +3610,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3612,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3623,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3634,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3645,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3656,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3667,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3678,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3689,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3700,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3711,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3722,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3733,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3744,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3755,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3766,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3777,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -3788,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3799,18 +3808,18 @@
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3821,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3832,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3843,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3854,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3865,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3876,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -3887,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3898,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3909,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3920,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3931,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3942,7 +3951,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -3953,29 +3962,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3986,21 +3995,21 @@
         <v>3</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4011,7 +4020,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4022,7 +4031,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4033,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4044,7 +4053,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4055,10 +4064,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -4069,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -4080,7 +4089,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4091,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -4102,21 +4111,21 @@
         <v>6</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4127,7 +4136,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4138,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4149,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4160,7 +4169,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4171,7 +4180,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4182,10 +4191,10 @@
         <v>38</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4196,7 +4205,7 @@
         <v>38</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4207,7 +4216,7 @@
         <v>38</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4218,7 +4227,7 @@
         <v>38</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4229,7 +4238,7 @@
         <v>38</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4240,7 +4249,7 @@
         <v>38</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4251,7 +4260,7 @@
         <v>38</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4262,10 +4271,10 @@
         <v>16</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4276,7 +4285,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4298,7 +4307,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4309,7 +4318,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4320,18 +4329,18 @@
         <v>16</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -4342,7 +4351,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4353,7 +4362,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4364,7 +4373,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4375,7 +4384,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4386,18 +4395,18 @@
         <v>16</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -4408,7 +4417,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4419,7 +4428,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4430,7 +4439,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4441,7 +4450,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -4452,7 +4461,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4463,29 +4472,29 @@
         <v>16</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4496,7 +4505,7 @@
         <v>16</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4507,7 +4516,7 @@
         <v>16</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4518,7 +4527,7 @@
         <v>16</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4529,7 +4538,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4540,7 +4549,7 @@
         <v>16</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4551,7 +4560,7 @@
         <v>16</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4562,18 +4571,18 @@
         <v>16</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>489</v>
+        <v>785</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4584,51 +4593,51 @@
         <v>16</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4639,29 +4648,29 @@
         <v>16</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4672,7 +4681,7 @@
         <v>16</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4683,40 +4692,40 @@
         <v>16</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4727,18 +4736,18 @@
         <v>16</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4749,7 +4758,7 @@
         <v>16</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4760,73 +4769,73 @@
         <v>16</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4837,10 +4846,10 @@
         <v>31</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -4851,7 +4860,7 @@
         <v>31</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4862,7 +4871,7 @@
         <v>31</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4873,7 +4882,7 @@
         <v>31</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4884,7 +4893,7 @@
         <v>31</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -4895,7 +4904,7 @@
         <v>31</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4906,40 +4915,40 @@
         <v>31</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4950,7 +4959,7 @@
         <v>31</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4961,32 +4970,32 @@
         <v>36</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -4997,21 +5006,21 @@
         <v>36</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5022,7 +5031,7 @@
         <v>42</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5033,7 +5042,7 @@
         <v>42</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5044,7 +5053,7 @@
         <v>42</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5055,51 +5064,51 @@
         <v>42</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5110,7 +5119,7 @@
         <v>42</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5121,7 +5130,7 @@
         <v>42</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5132,40 +5141,40 @@
         <v>42</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5176,7 +5185,7 @@
         <v>42</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5187,7 +5196,7 @@
         <v>42</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5198,7 +5207,7 @@
         <v>42</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5209,7 +5218,7 @@
         <v>42</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5220,7 +5229,7 @@
         <v>42</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5231,29 +5240,29 @@
         <v>42</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5264,7 +5273,7 @@
         <v>42</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5275,7 +5284,7 @@
         <v>42</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5286,7 +5295,7 @@
         <v>42</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5297,7 +5306,7 @@
         <v>42</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5308,7 +5317,7 @@
         <v>42</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5319,29 +5328,29 @@
         <v>42</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -5352,7 +5361,7 @@
         <v>42</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5363,7 +5372,7 @@
         <v>42</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5374,40 +5383,40 @@
         <v>42</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5418,7 +5427,7 @@
         <v>42</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5429,10 +5438,10 @@
         <v>51</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5443,10 +5452,10 @@
         <v>54</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5457,7 +5466,7 @@
         <v>54</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5468,7 +5477,7 @@
         <v>54</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5479,18 +5488,18 @@
         <v>54</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5501,7 +5510,7 @@
         <v>54</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5512,7 +5521,7 @@
         <v>54</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5523,7 +5532,7 @@
         <v>54</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5534,7 +5543,7 @@
         <v>54</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5545,18 +5554,18 @@
         <v>54</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5567,7 +5576,7 @@
         <v>54</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5578,32 +5587,32 @@
         <v>56</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5614,18 +5623,18 @@
         <v>56</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5636,7 +5645,7 @@
         <v>56</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5647,18 +5656,18 @@
         <v>56</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5669,10 +5678,10 @@
         <v>58</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5683,7 +5692,7 @@
         <v>58</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5705,18 +5714,18 @@
         <v>58</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,32 +5736,32 @@
         <v>58</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5763,10 +5772,10 @@
         <v>62</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5777,7 +5786,7 @@
         <v>62</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5788,21 +5797,21 @@
         <v>62</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5813,10 +5822,10 @@
         <v>66</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5843,13 +5852,13 @@
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5860,7 +5869,7 @@
         <v>66</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5871,18 +5880,18 @@
         <v>66</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5893,7 +5902,7 @@
         <v>66</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -5904,7 +5913,7 @@
         <v>66</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5915,7 +5924,7 @@
         <v>66</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5926,62 +5935,62 @@
         <v>69</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>73</v>
@@ -5992,24 +6001,24 @@
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6020,7 +6029,7 @@
         <v>73</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6031,7 +6040,7 @@
         <v>73</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6042,7 +6051,7 @@
         <v>73</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6053,40 +6062,40 @@
         <v>73</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6102,35 +6111,35 @@
     </row>
     <row r="227" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A227" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6141,18 +6150,18 @@
         <v>73</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6163,40 +6172,40 @@
         <v>73</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6207,7 +6216,7 @@
         <v>73</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6218,7 +6227,7 @@
         <v>73</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6229,18 +6238,18 @@
         <v>73</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6251,7 +6260,7 @@
         <v>73</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6273,18 +6282,18 @@
         <v>73</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6295,7 +6304,7 @@
         <v>73</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6306,51 +6315,51 @@
         <v>73</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6361,7 +6370,7 @@
         <v>73</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6372,18 +6381,18 @@
         <v>73</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6394,43 +6403,43 @@
         <v>73</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6441,43 +6450,43 @@
         <v>75</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6488,18 +6497,18 @@
         <v>79</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6510,51 +6519,51 @@
         <v>79</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6565,46 +6574,46 @@
         <v>84</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6615,18 +6624,18 @@
         <v>86</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6637,29 +6646,29 @@
         <v>86</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6670,7 +6679,7 @@
         <v>86</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6681,18 +6690,18 @@
         <v>86</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6703,10 +6712,10 @@
         <v>66</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -9292,12 +9301,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C2CD1DD118472458A0E6161F2144773" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6e70606a31341017029f9eff1eb720b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0afe7543-80e5-4676-a63d-5a4feeb00470" xmlns:ns3="0accda53-abec-4882-afe9-cc0ba02332f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b75b586682df3983c7d47b6a8e259e8b" ns2:_="" ns3:_="">
     <xsd:import namespace="0afe7543-80e5-4676-a63d-5a4feeb00470"/>
@@ -9508,6 +9511,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73852CBC-2E2A-43EB-ADAD-FD0ACC658E1E}">
   <ds:schemaRefs>
@@ -9517,15 +9526,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C858A0-B59C-47E8-A200-4A6AAC57C6A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9542,4 +9542,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD2911FF-F89D-4904-8999-6B7B74F09443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>